--- a/03.crawler/02.Dorman/file/5.collate/crawler_2-vehicle.xlsx
+++ b/03.crawler/02.Dorman/file/5.collate/crawler_2-vehicle.xlsx
@@ -466,15 +466,372 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>264-012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=32211&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ford E-100 Econoline 1981-1983
+Ford E-100 Econoline Club Wagon 1981-1983
+Ford E-150 Econoline 1981-1984
+Ford E-150 Econoline Club Wagon 1981-1984
+Ford E-250 Econoline 1981-1984
+Ford E-350 Econoline 1981-1982</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford E-100 Econoline 1981-1983 V8 302 5.0L
+Ford E-100 Econoline Club Wagon 1981-1983 V8 302 5.0L
+Ford E-150 Econoline 1981-1983 Naturally Aspirated; V8 302 5.0L; VIN F; CARB; GAS
+Ford E-150 Econoline 1984 V8 302 5.0L
+Ford E-150 Econoline Club Wagon 1981-1983 Naturally Aspirated; V8 302 5.0L; VIN F; CARB; GAS
+Ford E-150 Econoline Club Wagon 1984 V8 302 5.0L
+Ford E-250 Econoline 1981-1984 V8 302 5.0L
+Ford E-350 Econoline 1981-1982 V8 302 5.0L</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>264-024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=17619&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ford Bronco 1980-1982
+Ford E-100 Econoline 1980-1982
+Ford E-100 Econoline Club Wagon 1980-1982
+Ford E-150 Econoline 1980-1982
+Ford E-150 Econoline Club Wagon 1980-1982
+Ford E-250 Econoline 1980-1982
+Ford E-250 Econoline Club Wagon 1980
+Ford E-350 Econoline 1980-1982
+Ford E-350 Econoline Club Wagon 1980-1982
+Ford F-100 1980-1982
+Ford F-150 1980-1982
+Ford F-250 1980-1982
+Ford F-350 1980-1982</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Bronco 1980-1982 L6 300 4.9L (4917cc)
+Ford E-100 Econoline 1980-1982 L6 300 4.9L (4917cc)
+Ford E-100 Econoline Club Wagon 1980-1982 L6 300 4.9L (4917cc)
+Ford E-150 Econoline 1980-1982 Naturally Aspirated; L6 300 4.9L (4917cc); VIN E; CARB; GAS
+Ford E-150 Econoline Club Wagon 1980-1982 Naturally Aspirated; L6 300 4.9L (4917cc); VIN E; CARB; GAS
+Ford E-250 Econoline 1980-1982 L6 300 4.9L (4917cc)
+Ford E-250 Econoline Club Wagon 1980 L6 300 4.9L (4917cc)
+Ford E-350 Econoline 1980-1982 L6 300 4.9L (4917cc)
+Ford E-350 Econoline Club Wagon 1980-1982 L6 300 4.9L (4917cc)
+Ford F-100 1980-1982 L6 300 4.9L (4917cc)
+Ford F-150 1980-1982 L6 300 4.9L (4917cc)
+Ford F-250 1980-1982 L6 300 4.9L (4917cc)
+Ford F-350 1980-1982 L6 300 4.9L (4917cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>264-118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=2022&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Buick Century 1978-1979
+Buick Regal 1978-1979
+Chevrolet El Camino 1978-1979
+Chevrolet Malibu 1978-1979
+Chevrolet Monte Carlo 1978-1979
+GMC Caballero 1978-1982
+Oldsmobile Cutlass 1978-1979
+Oldsmobile Cutlass Calais 1978-1979
+Oldsmobile Cutlass Salon 1978-1980
+Oldsmobile Cutlass Supreme 1978-1979
+Pontiac Grand Am 1978-1979
+Pontiac Grand LeMans 1978-1979
+Pontiac Grand Prix 1978-1979
+Pontiac LeMans 1978-1981</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Buick Century 1978-1979 V8 305 5.0L
+Buick Century 1978-1979 V8 350 5.7L
+Buick Regal 1978-1979 V8 305 5.0L
+Chevrolet El Camino 1978-1979 V8 305 5.0L
+Chevrolet El Camino 1979 V8 267 4.4L
+Chevrolet Malibu 1978-1979 V8 305 5.0L
+Chevrolet Malibu 1979 V8 267 4.4L
+Chevrolet Monte Carlo 1978-1979 V8 305 5.0L
+Chevrolet Monte Carlo 1979 V8 267 4.4L
+GMC Caballero 1978-1979 V8 305 5.0L
+GMC Caballero 1979-1982 Naturally Aspirated; V8 267 4.4L; VIN J; CARB; GAS
+Oldsmobile Cutlass 1978-1979 V8 305 5.0L
+Oldsmobile Cutlass Calais 1978-1979 V8 305 5.0L
+Oldsmobile Cutlass Salon 1978 Naturally Aspirated; V8 305 5.0L; VIN U; CARB; GAS
+Oldsmobile Cutlass Salon 1978-1980 Naturally Aspirated; V8 305 5.0L; VIN H; CARB; GAS
+Oldsmobile Cutlass Supreme 1978 V8 350 5.7L
+Oldsmobile Cutlass Supreme 1978-1979 V8 305 5.0L
+Pontiac Grand Am 1978-1979 V8 305 5.0L
+Pontiac Grand LeMans 1978-1979 V8 305 5.0L
+Pontiac Grand LeMans 1979 V8 350 5.7L
+Pontiac Grand Prix 1978-1979 V8 305 5.0L
+Pontiac LeMans 1978-1979 V8 305 5.0L
+Pontiac LeMans 1979 V8 350 5.7L
+Pontiac LeMans 1979-1981 Naturally Aspirated; V8 267 4.4L; VIN J; CARB; GAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>264-300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=3053&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Geo Prizm 1990-1992
+Toyota Celica 1990-1993
+Toyota Corolla 1988-1992
+Toyota MR2 1988-1989</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Geo Prizm 1990-1992 L4 1.6L (1587cc); VIN 6
+Toyota Celica 1990-1993 L4 1.6L (1587cc)
+Toyota Corolla 1988-1989 L4 1.6L (1587cc); Engine Desg. 4AF
+Toyota Corolla 1989-1992 Sedan; L4 1.6L (1587cc); Engine Desg. 4A-FE
+Toyota Corolla 1990-1991 Coupe; L4 1.6L (1587cc); Engine Desg. 4A-FE
+Toyota MR2 1988-1989 L4 1.6L (1587cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>264-301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15500&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Toyota Corolla 1988-1991
+Toyota MR2 1988-1989</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Toyota Corolla 1988-1991 L4 1.6L (1587cc); Engine Desg. 4A-GE
+Toyota MR2 1988-1989 L4 1.6L (1587cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>264-863</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=153595&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Infiniti Q50 2016-2020
+Infiniti Q60 2017-2020</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Infiniti Q50 2016-2020 AWD; V6 3.0L (2997cc)
+Infiniti Q60 2017-2020 AWD; V6 3.0L (2997cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>264-864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152638&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Infiniti Q50 2016-2020
+Infiniti Q60 2017-2020
+Nissan Z 2023-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Infiniti Q50 2016-2020 RWD; V6 3.0L (2997cc)
+Infiniti Q60 2017-2020 RWD; V6 3.0L (2997cc)
+Nissan Z 2023-2024 V6 3.0L (2997cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>266-003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152639&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lexus ES350 2019-2023
+Lexus RX350 2016-2022
+Lexus RX350L 2018-2022
+Lexus RX450h 2016-2022
+Lexus RX450hL 2018-2022
+Toyota Avalon 2019-2022
+Toyota Camry 2018-2023
+Toyota Highlander 2017-2022
+Toyota Sienna 2017-2020</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lexus ES350 2019-2023 V6 3.5L (3456cc)
+Lexus RX350 2016-2022 V6 3.5L (3456cc)
+Lexus RX350L 2018-2022 V6 3.5L (3456cc)
+Lexus RX450h 2016-2022 V6 3.5L (3456cc)
+Lexus RX450hL 2018-2022 V6 3.5L (3456cc)
+Toyota Avalon 2019-2022 V6 3.5L (3456cc)
+Toyota Camry 2018-2023 V6 3.5L (3456cc)
+Toyota Highlander 2017-2022 V6 3.5L (3456cc)
+Toyota Sienna 2017-2020 V6 3.5L (3456cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>266-004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152746&amp;PartType=Engine%20Oil%20Pan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lexus ES250 2021-2023
+Lexus ES300h 2019-2023
+Lexus NX250 2022-2023
+Lexus NX350h 2022-2023
+Lexus NX450h+ 2022-2023
+Lexus RX350h 2023
+Toyota Avalon 2019-2022
+Toyota Camry 2018-2023
+Toyota Crown 2023
+Toyota Highlander 2020-2023
+Toyota RAV4 2019-2023
+Toyota RAV4 Prime 2021-2023
+Toyota Sienna 2021-2023
+Toyota Venza 2021-2023</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lexus ES250 2021-2023 L4 152 2.5L (2487cc)
+Lexus ES300h 2019-2023 L4 152 2.5L (2487cc)
+Lexus NX250 2022-2023 L4 152 2.5L (2487cc)
+Lexus NX350h 2022-2023 L4 152 2.5L (2487cc)
+Lexus NX450h+ 2022-2023 L4 152 2.5L (2487cc)
+Lexus RX350h 2023 L4 152 2.5L (2487cc)
+Toyota Avalon 2019-2022 L4 152 2.5L (2487cc)
+Toyota Camry 2018-2023 L4 152 2.5L (2487cc)
+Toyota Crown 2023 L4 152 2.5L (2487cc)
+Toyota Highlander 2020-2023 L4 152 2.5L (2487cc)
+Toyota RAV4 2019 L4 152 2.5L (2487cc); Canada Region
+Toyota RAV4 2019 L4 152 2.5L (2487cc); United States Region
+Toyota RAV4 2020-2023 L4 152 2.5L (2487cc)
+Toyota RAV4 Prime 2021-2023 L4 152 2.5L (2487cc)
+Toyota Sienna 2021-2023 L4 152 2.5L (2487cc)
+Toyota Venza 2021-2023 L4 152 2.5L (2487cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>264-6005G</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=133461&amp;PartType=Engine%20Oil%20Pan%20Gasket</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>American Coach American Dream 2021-2024
 American Coach American Eagle 2021-2024
@@ -575,7 +932,7 @@
 Western Star 6900XD 2012-2023</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>American Coach American Dream 2021-2024 Engine Desg. ISX 15.0; EngineMfr Cummins
 American Coach American Eagle 2021-2024 Engine Desg. ISX 15.0; EngineMfr Cummins
@@ -692,363 +1049,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>266-003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152639&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lexus ES350 2019-2023
-Lexus RX350 2016-2022
-Lexus RX350L 2018-2022
-Lexus RX450h 2016-2022
-Lexus RX450hL 2018-2022
-Toyota Avalon 2019-2022
-Toyota Camry 2018-2023
-Toyota Highlander 2017-2022
-Toyota Sienna 2017-2020</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lexus ES350 2019-2023 V6 3.5L (3456cc)
-Lexus RX350 2016-2022 V6 3.5L (3456cc)
-Lexus RX350L 2018-2022 V6 3.5L (3456cc)
-Lexus RX450h 2016-2022 V6 3.5L (3456cc)
-Lexus RX450hL 2018-2022 V6 3.5L (3456cc)
-Toyota Avalon 2019-2022 V6 3.5L (3456cc)
-Toyota Camry 2018-2023 V6 3.5L (3456cc)
-Toyota Highlander 2017-2022 V6 3.5L (3456cc)
-Toyota Sienna 2017-2020 V6 3.5L (3456cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>266-004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152746&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Lexus ES250 2021-2023
-Lexus ES300h 2019-2023
-Lexus NX250 2022-2023
-Lexus NX350h 2022-2023
-Lexus NX450h+ 2022-2023
-Lexus RX350h 2023
-Toyota Avalon 2019-2022
-Toyota Camry 2018-2023
-Toyota Crown 2023
-Toyota Highlander 2020-2023
-Toyota RAV4 2019-2023
-Toyota RAV4 Prime 2021-2023
-Toyota Sienna 2021-2023
-Toyota Venza 2021-2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lexus ES250 2021-2023 L4 152 2.5L (2487cc)
-Lexus ES300h 2019-2023 L4 152 2.5L (2487cc)
-Lexus NX250 2022-2023 L4 152 2.5L (2487cc)
-Lexus NX350h 2022-2023 L4 152 2.5L (2487cc)
-Lexus NX450h+ 2022-2023 L4 152 2.5L (2487cc)
-Lexus RX350h 2023 L4 152 2.5L (2487cc)
-Toyota Avalon 2019-2022 L4 152 2.5L (2487cc)
-Toyota Camry 2018-2023 L4 152 2.5L (2487cc)
-Toyota Crown 2023 L4 152 2.5L (2487cc)
-Toyota Highlander 2020-2023 L4 152 2.5L (2487cc)
-Toyota RAV4 2019 L4 152 2.5L (2487cc); Canada Region
-Toyota RAV4 2019 L4 152 2.5L (2487cc); United States Region
-Toyota RAV4 2020-2023 L4 152 2.5L (2487cc)
-Toyota RAV4 Prime 2021-2023 L4 152 2.5L (2487cc)
-Toyota Sienna 2021-2023 L4 152 2.5L (2487cc)
-Toyota Venza 2021-2023 L4 152 2.5L (2487cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>264-864</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=152638&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Infiniti Q50 2016-2020
-Infiniti Q60 2017-2020
-Nissan Z 2023-2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Infiniti Q50 2016-2020 RWD; V6 3.0L (2997cc)
-Infiniti Q60 2017-2020 RWD; V6 3.0L (2997cc)
-Nissan Z 2023-2024 V6 3.0L (2997cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>264-301</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15500&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Toyota Corolla 1988-1991
-Toyota MR2 1988-1989</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Toyota Corolla 1988-1991 L4 1.6L (1587cc); Engine Desg. 4A-GE
-Toyota MR2 1988-1989 L4 1.6L (1587cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>264-012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=32211&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ford E-100 Econoline 1981-1983
-Ford E-100 Econoline Club Wagon 1981-1983
-Ford E-150 Econoline 1981-1984
-Ford E-150 Econoline Club Wagon 1981-1984
-Ford E-250 Econoline 1981-1984
-Ford E-350 Econoline 1981-1982</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ford E-100 Econoline 1981-1983 V8 302 5.0L
-Ford E-100 Econoline Club Wagon 1981-1983 V8 302 5.0L
-Ford E-150 Econoline 1981-1983 Naturally Aspirated; V8 302 5.0L; VIN F; CARB; GAS
-Ford E-150 Econoline 1984 V8 302 5.0L
-Ford E-150 Econoline Club Wagon 1981-1983 Naturally Aspirated; V8 302 5.0L; VIN F; CARB; GAS
-Ford E-150 Econoline Club Wagon 1984 V8 302 5.0L
-Ford E-250 Econoline 1981-1984 V8 302 5.0L
-Ford E-350 Econoline 1981-1982 V8 302 5.0L</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>264-024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=17619&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ford Bronco 1980-1982
-Ford E-100 Econoline 1980-1982
-Ford E-100 Econoline Club Wagon 1980-1982
-Ford E-150 Econoline 1980-1982
-Ford E-150 Econoline Club Wagon 1980-1982
-Ford E-250 Econoline 1980-1982
-Ford E-250 Econoline Club Wagon 1980
-Ford E-350 Econoline 1980-1982
-Ford E-350 Econoline Club Wagon 1980-1982
-Ford F-100 1980-1982
-Ford F-150 1980-1982
-Ford F-250 1980-1982
-Ford F-350 1980-1982</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ford Bronco 1980-1982 L6 300 4.9L (4917cc)
-Ford E-100 Econoline 1980-1982 L6 300 4.9L (4917cc)
-Ford E-100 Econoline Club Wagon 1980-1982 L6 300 4.9L (4917cc)
-Ford E-150 Econoline 1980-1982 Naturally Aspirated; L6 300 4.9L (4917cc); VIN E; CARB; GAS
-Ford E-150 Econoline Club Wagon 1980-1982 Naturally Aspirated; L6 300 4.9L (4917cc); VIN E; CARB; GAS
-Ford E-250 Econoline 1980-1982 L6 300 4.9L (4917cc)
-Ford E-250 Econoline Club Wagon 1980 L6 300 4.9L (4917cc)
-Ford E-350 Econoline 1980-1982 L6 300 4.9L (4917cc)
-Ford E-350 Econoline Club Wagon 1980-1982 L6 300 4.9L (4917cc)
-Ford F-100 1980-1982 L6 300 4.9L (4917cc)
-Ford F-150 1980-1982 L6 300 4.9L (4917cc)
-Ford F-250 1980-1982 L6 300 4.9L (4917cc)
-Ford F-350 1980-1982 L6 300 4.9L (4917cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>264-118</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=2022&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Buick Century 1978-1979
-Buick Regal 1978-1979
-Chevrolet El Camino 1978-1979
-Chevrolet Malibu 1978-1979
-Chevrolet Monte Carlo 1978-1979
-GMC Caballero 1978-1982
-Oldsmobile Cutlass 1978-1979
-Oldsmobile Cutlass Calais 1978-1979
-Oldsmobile Cutlass Salon 1978-1980
-Oldsmobile Cutlass Supreme 1978-1979
-Pontiac Grand Am 1978-1979
-Pontiac Grand LeMans 1978-1979
-Pontiac Grand Prix 1978-1979
-Pontiac LeMans 1978-1981</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Buick Century 1978-1979 V8 305 5.0L
-Buick Century 1978-1979 V8 350 5.7L
-Buick Regal 1978-1979 V8 305 5.0L
-Chevrolet El Camino 1978-1979 V8 305 5.0L
-Chevrolet El Camino 1979 V8 267 4.4L
-Chevrolet Malibu 1978-1979 V8 305 5.0L
-Chevrolet Malibu 1979 V8 267 4.4L
-Chevrolet Monte Carlo 1978-1979 V8 305 5.0L
-Chevrolet Monte Carlo 1979 V8 267 4.4L
-GMC Caballero 1978-1979 V8 305 5.0L
-GMC Caballero 1979-1982 Naturally Aspirated; V8 267 4.4L; VIN J; CARB; GAS
-Oldsmobile Cutlass 1978-1979 V8 305 5.0L
-Oldsmobile Cutlass Calais 1978-1979 V8 305 5.0L
-Oldsmobile Cutlass Salon 1978 Naturally Aspirated; V8 305 5.0L; VIN U; CARB; GAS
-Oldsmobile Cutlass Salon 1978-1980 Naturally Aspirated; V8 305 5.0L; VIN H; CARB; GAS
-Oldsmobile Cutlass Supreme 1978 V8 350 5.7L
-Oldsmobile Cutlass Supreme 1978-1979 V8 305 5.0L
-Pontiac Grand Am 1978-1979 V8 305 5.0L
-Pontiac Grand LeMans 1978-1979 V8 305 5.0L
-Pontiac Grand LeMans 1979 V8 350 5.7L
-Pontiac Grand Prix 1978-1979 V8 305 5.0L
-Pontiac LeMans 1978-1979 V8 305 5.0L
-Pontiac LeMans 1979 V8 350 5.7L
-Pontiac LeMans 1979-1981 Naturally Aspirated; V8 267 4.4L; VIN J; CARB; GAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>264-300</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=3053&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Geo Prizm 1990-1992
-Toyota Celica 1990-1993
-Toyota Corolla 1988-1992
-Toyota MR2 1988-1989</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Geo Prizm 1990-1992 L4 1.6L (1587cc); VIN 6
-Toyota Celica 1990-1993 L4 1.6L (1587cc)
-Toyota Corolla 1988-1989 L4 1.6L (1587cc); Engine Desg. 4AF
-Toyota Corolla 1989-1992 Sedan; L4 1.6L (1587cc); Engine Desg. 4A-FE
-Toyota Corolla 1990-1991 Coupe; L4 1.6L (1587cc); Engine Desg. 4A-FE
-Toyota MR2 1988-1989 L4 1.6L (1587cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>264-863</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=153595&amp;PartType=Engine%20Oil%20Pan</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Infiniti Q50 2016-2020
-Infiniti Q60 2017-2020</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Infiniti Q50 2016-2020 AWD; V6 3.0L (2997cc)
-Infiniti Q60 2017-2020 AWD; V6 3.0L (2997cc)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
